--- a/Team-Data/2012-13/3-16-2012-13.xlsx
+++ b/Team-Data/2012-13/3-16-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -804,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="H3" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
         <v>80.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
         <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R3" t="n">
         <v>8.300000000000001</v>
@@ -899,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
         <v>14.5</v>
@@ -908,7 +975,7 @@
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,31 +984,31 @@
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -950,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -959,13 +1026,13 @@
         <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -983,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,10 +1187,10 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1150,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
         <v>20</v>
@@ -1168,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,7 +1297,7 @@
         <v>34.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.417</v>
@@ -1245,22 +1312,22 @@
         <v>0.338</v>
       </c>
       <c r="O5" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S5" t="n">
         <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U5" t="n">
         <v>19</v>
@@ -1275,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
         <v>19.3</v>
@@ -1284,13 +1351,13 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10.2</v>
+        <v>-10</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1332,10 +1399,10 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1484,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1514,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1529,10 +1596,10 @@
         <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1544,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>3.8</v>
@@ -1642,25 +1709,25 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA7" t="n">
         <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1675,13 +1742,13 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
       </c>
       <c r="AM7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
         <v>20</v>
@@ -1693,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>9</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1720,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1872,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1905,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2060,7 +2127,7 @@
         <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.338</v>
+        <v>0.343</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
         <v>17.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O10" t="n">
         <v>15.9</v>
@@ -2164,19 +2231,19 @@
         <v>0.694</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>6.8</v>
@@ -2194,10 +2261,10 @@
         <v>20.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,13 +2273,13 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2221,16 +2288,16 @@
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2245,10 +2312,10 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2263,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2391,10 +2458,10 @@
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2409,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2439,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.606</v>
+        <v>0.615</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,10 +2753,10 @@
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>7.1</v>
@@ -2704,13 +2771,13 @@
         <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
         <v>32.9</v>
@@ -2719,19 +2786,19 @@
         <v>45.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>6.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
         <v>20.2</v>
@@ -2743,16 +2810,16 @@
         <v>94.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
@@ -2761,13 +2828,13 @@
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,10 +2843,10 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2788,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="AR13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
@@ -2809,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2970,7 +3037,7 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
         <v>22</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
         <v>2</v>
@@ -3164,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.677</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
         <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
         <v>42.6</v>
       </c>
       <c r="U16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
@@ -3286,13 +3353,13 @@
         <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3301,13 +3368,13 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3334,16 +3401,16 @@
         <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
@@ -3361,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3713,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -3841,13 +3908,13 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>22</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3859,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,10 +3947,10 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4087,22 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4062,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4071,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -4241,13 +4308,13 @@
         <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,25 +4755,25 @@
         <v>37.1</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
         <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
         <v>0.717</v>
@@ -4715,13 +4782,13 @@
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
         <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -4730,25 +4797,25 @@
         <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4766,19 +4833,19 @@
         <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
@@ -4808,19 +4875,19 @@
         <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
         <v>25</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
@@ -4900,10 +4967,10 @@
         <v>30</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.5</v>
@@ -4924,31 +4991,31 @@
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG25" t="n">
         <v>27</v>
       </c>
-      <c r="AG25" t="n">
-        <v>28</v>
-      </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>22</v>
@@ -4957,7 +5024,7 @@
         <v>27</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4972,13 +5039,13 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
         <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,7 +5119,7 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
@@ -5067,13 +5134,13 @@
         <v>0.347</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P26" t="n">
         <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
@@ -5088,7 +5155,7 @@
         <v>21.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5106,34 +5173,34 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,34 +5212,34 @@
         <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5184,10 +5251,10 @@
         <v>22</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,10 +5370,10 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -5315,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -5398,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
         <v>0.789</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5467,16 +5534,16 @@
         <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.5</v>
+        <v>104.2</v>
       </c>
       <c r="AC28" t="n">
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5536,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5676,10 +5743,10 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
@@ -5703,7 +5770,7 @@
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5718,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5730,10 +5797,10 @@
         <v>15</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
         <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.515</v>
+        <v>0.508</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5792,31 +5859,31 @@
         <v>16.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O30" t="n">
         <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S30" t="n">
         <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5828,19 +5895,19 @@
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5852,25 +5919,25 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
         <v>14</v>
       </c>
-      <c r="AK30" t="n">
-        <v>15</v>
-      </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5882,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5894,7 +5961,7 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>12</v>
@@ -5912,7 +5979,7 @@
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="n">
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.354</v>
+        <v>0.344</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.364</v>
+        <v>0.358</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
         <v>20.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6013,34 +6080,34 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6064,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6094,7 +6161,7 @@
         <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-16-2012-13</t>
+          <t>2013-03-16</t>
         </is>
       </c>
     </row>
